--- a/doc/Jetson_Orin_NX_andOrin_Nano_Schematic_Checklist.xlsx
+++ b/doc/Jetson_Orin_NX_andOrin_Nano_Schematic_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danai\OneDrive\Desktop\Github\jetson-orin-baseboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F6D77-23EE-4190-8097-6D91DE2FD759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{031EC9AF-C5D7-47A7-9501-69A3A740D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="876" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <definedName name="_Toc315251806" localSheetId="2">General!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="333">
   <si>
     <t>Check Item</t>
   </si>
@@ -1188,6 +1189,9 @@
   </si>
   <si>
     <t>LAST VERIFICATION MIGHT BE REQUIRED</t>
+  </si>
+  <si>
+    <t>RESPECTING ANTMICRO SCHEMATIC</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1472,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1496,6 +1500,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1877,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2331,12 +2347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2366,69 +2376,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3245,7 +3264,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3356,15 +3375,15 @@
       </c>
       <c r="J6" s="80">
         <f>I2C_SPI_CAN_UART!E3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="80">
         <f>Debug_Strapping!E3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6" s="80">
         <f>Pins_EMI_ESD!E3</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -3409,15 +3428,15 @@
       </c>
       <c r="J7" s="80">
         <f>I2C_SPI_CAN_UART!E4</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="80">
         <f>Debug_Strapping!E4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="80">
         <f>Pins_EMI_ESD!E4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -3428,49 +3447,49 @@
       <c r="A8" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="191" t="str">
+      <c r="B8" s="202" t="str">
         <f>High_Priority!E5</f>
         <v>100</v>
       </c>
-      <c r="C8" s="192" t="str">
+      <c r="C8" s="201" t="str">
         <f>General!E5</f>
         <v>100</v>
       </c>
-      <c r="D8" s="192" t="str">
+      <c r="D8" s="201" t="str">
         <f>Ref_Design_Considerations!E5</f>
         <v>100</v>
       </c>
-      <c r="E8" s="192">
+      <c r="E8" s="203">
         <f>Power!I5</f>
         <v>0.65</v>
       </c>
-      <c r="F8" s="192" t="str">
+      <c r="F8" s="201" t="str">
         <f>USB_PEX!E5</f>
         <v>100</v>
       </c>
-      <c r="G8" s="192" t="str">
+      <c r="G8" s="201" t="str">
         <f>Ethernet!E5</f>
         <v>100</v>
       </c>
-      <c r="H8" s="192">
+      <c r="H8" s="203">
         <f>Disp_Cam!E5</f>
         <v>0.5</v>
       </c>
-      <c r="I8" s="192" t="str">
+      <c r="I8" s="201" t="str">
         <f>Audio!E5</f>
         <v>100</v>
       </c>
-      <c r="J8" s="192">
+      <c r="J8" s="201" t="str">
         <f>I2C_SPI_CAN_UART!E5</f>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="K8" s="192">
+        <v>100</v>
+      </c>
+      <c r="K8" s="201" t="str">
         <f>Debug_Strapping!E5</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="192">
+        <v>100</v>
+      </c>
+      <c r="L8" s="203">
         <f>Pins_EMI_ESD!E5</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -3945,8 +3964,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3987,7 +4006,7 @@
       </c>
       <c r="E3" s="40">
         <f>COUNTBLANK(E7:E34)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="38"/>
     </row>
@@ -4000,7 +4019,7 @@
       </c>
       <c r="E4" s="39">
         <f>E2-E3</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -4011,9 +4030,9 @@
       <c r="D5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="41" t="str">
         <f>IF(E3=0,"100",E4/E2)</f>
-        <v>0.95238095238095233</v>
+        <v>100</v>
       </c>
       <c r="F5" s="38"/>
     </row>
@@ -4223,7 +4242,9 @@
         <v>208</v>
       </c>
       <c r="D19" s="131"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="119" t="s">
+        <v>323</v>
+      </c>
       <c r="F19" s="120"/>
     </row>
     <row r="20" spans="1:19" ht="21">
@@ -5054,7 +5075,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5095,7 +5116,7 @@
       </c>
       <c r="E3" s="40">
         <f>COUNTBLANK(E7:E14)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="38"/>
     </row>
@@ -5108,7 +5129,7 @@
       </c>
       <c r="E4" s="39">
         <f>E2-E3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -5119,9 +5140,9 @@
       <c r="D5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="41" t="str">
         <f>IF(E3=0,"100",E4/E2)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="38"/>
     </row>
@@ -5187,10 +5208,12 @@
         <v>207</v>
       </c>
       <c r="D10" s="84"/>
-      <c r="E10" s="119"/>
+      <c r="E10" s="119" t="s">
+        <v>323</v>
+      </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="149" t="s">
         <v>16</v>
       </c>
@@ -5201,8 +5224,12 @@
         <v>201</v>
       </c>
       <c r="D11" s="84"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="160" customFormat="1" ht="26.25">
       <c r="A12" s="123" t="s">
@@ -5228,7 +5255,9 @@
         <v>117</v>
       </c>
       <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
+      <c r="E13" s="157" t="s">
+        <v>323</v>
+      </c>
       <c r="F13" s="158"/>
       <c r="G13" s="185"/>
     </row>
@@ -5243,7 +5272,9 @@
         <v>274</v>
       </c>
       <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
+      <c r="E14" s="157" t="s">
+        <v>323</v>
+      </c>
       <c r="F14" s="158"/>
       <c r="G14" s="185"/>
     </row>
@@ -5891,8 +5922,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5933,7 +5964,7 @@
       </c>
       <c r="E3" s="40">
         <f>COUNTBLANK(E7:E21)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="38"/>
     </row>
@@ -5946,7 +5977,7 @@
       </c>
       <c r="E4" s="39">
         <f>E2-E3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -5959,7 +5990,7 @@
       </c>
       <c r="E5" s="41">
         <f>IF(E3=0,"100",E4/E2)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F5" s="38"/>
     </row>
@@ -6039,7 +6070,9 @@
         <v>14</v>
       </c>
       <c r="D11" s="84"/>
-      <c r="E11" s="119"/>
+      <c r="E11" s="119" t="s">
+        <v>323</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
@@ -6724,7 +6757,7 @@
       <c r="D13" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="193" t="s">
+      <c r="E13" s="191" t="s">
         <v>297</v>
       </c>
       <c r="F13" s="72"/>
@@ -8461,11 +8494,11 @@
       <c r="C18" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="211" t="s">
+      <c r="D18" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="212"/>
-      <c r="F18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="107"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -8484,83 +8517,83 @@
       <c r="C19" s="98" t="s">
         <v>324</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="204"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
     </row>
     <row r="20" spans="1:19">
       <c r="C20" s="98"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
     </row>
     <row r="21" spans="1:19">
       <c r="C21" s="98"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
     </row>
     <row r="22" spans="1:19">
       <c r="C22" s="98"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
     </row>
     <row r="23" spans="1:19">
       <c r="C23" s="98"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
     </row>
     <row r="24" spans="1:19">
       <c r="C24" s="98"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="206"/>
     </row>
     <row r="25" spans="1:19" ht="21">
       <c r="C25" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="208"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="212"/>
     </row>
     <row r="26" spans="1:19">
       <c r="C26" s="98"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="206"/>
     </row>
     <row r="27" spans="1:19">
       <c r="C27" s="98"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="206"/>
     </row>
     <row r="28" spans="1:19">
       <c r="C28" s="98"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
     </row>
     <row r="29" spans="1:19">
       <c r="C29" s="98"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="204"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="206"/>
     </row>
     <row r="30" spans="1:19">
       <c r="C30" s="98"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
-      <c r="F30" s="204"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="206"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="C31" s="100"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="207"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="209"/>
     </row>
     <row r="32" spans="1:19">
       <c r="E32" s="46" t="s">
@@ -10202,12 +10235,12 @@
         <v>71</v>
       </c>
       <c r="B26" s="148"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
       <c r="I26" s="44" t="s">
         <v>26</v>
       </c>
@@ -10220,14 +10253,14 @@
       <c r="B27" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="214" t="s">
+      <c r="C27" s="216" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="119"/>
       <c r="J27" s="121"/>
     </row>
@@ -10238,14 +10271,14 @@
       <c r="B28" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="214" t="s">
+      <c r="C28" s="216" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="216"/>
       <c r="I28" s="119"/>
       <c r="J28" s="121"/>
     </row>
@@ -10256,14 +10289,14 @@
       <c r="B29" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="214" t="s">
+      <c r="C29" s="216" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="214"/>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="214"/>
+      <c r="D29" s="216"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
       <c r="I29" s="119"/>
       <c r="J29" s="121"/>
     </row>
@@ -10274,14 +10307,14 @@
       <c r="B30" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="214" t="s">
+      <c r="C30" s="216" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="119"/>
       <c r="J30" s="121"/>
     </row>
@@ -10292,14 +10325,14 @@
       <c r="B31" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="214" t="s">
+      <c r="C31" s="216" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="214"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="214"/>
-      <c r="H31" s="214"/>
+      <c r="D31" s="216"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="216"/>
       <c r="I31" s="119"/>
       <c r="J31" s="121"/>
     </row>
@@ -10310,14 +10343,14 @@
       <c r="B32" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="214" t="s">
+      <c r="C32" s="216" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
       <c r="I32" s="119"/>
       <c r="J32" s="121"/>
     </row>
@@ -10328,14 +10361,14 @@
       <c r="B33" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="214" t="s">
+      <c r="C33" s="216" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="214"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="214"/>
-      <c r="H33" s="214"/>
+      <c r="D33" s="216"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="216"/>
       <c r="I33" s="119"/>
       <c r="J33" s="121"/>
     </row>
@@ -10346,14 +10379,14 @@
       <c r="B34" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="216" t="s">
+      <c r="C34" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="218"/>
+      <c r="D34" s="219"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="220"/>
       <c r="I34" s="119"/>
       <c r="J34" s="121"/>
     </row>
@@ -10362,12 +10395,12 @@
         <v>184</v>
       </c>
       <c r="B35" s="148"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
       <c r="I35" s="44" t="s">
         <v>26</v>
       </c>
@@ -10378,12 +10411,12 @@
       <c r="B36" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="219"/>
-      <c r="D36" s="220"/>
-      <c r="E36" s="220"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="223"/>
       <c r="I36" s="110" t="s">
         <v>26</v>
       </c>
@@ -10396,14 +10429,14 @@
       <c r="B37" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="214" t="s">
+      <c r="C37" s="216" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="214"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="214"/>
-      <c r="G37" s="214"/>
-      <c r="H37" s="214"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
       <c r="I37" s="119"/>
       <c r="J37" s="121"/>
     </row>
@@ -10414,14 +10447,14 @@
       <c r="B38" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="214" t="s">
+      <c r="C38" s="216" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
       <c r="I38" s="119"/>
       <c r="J38" s="121"/>
     </row>
@@ -10432,14 +10465,14 @@
       <c r="B39" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="214" t="s">
+      <c r="C39" s="216" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="216"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="216"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="119"/>
       <c r="J39" s="121"/>
     </row>
@@ -10448,12 +10481,12 @@
       <c r="B40" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="219"/>
-      <c r="D40" s="220"/>
-      <c r="E40" s="220"/>
-      <c r="F40" s="220"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="221"/>
+      <c r="C40" s="221"/>
+      <c r="D40" s="222"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="222"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="223"/>
       <c r="I40" s="110" t="s">
         <v>26</v>
       </c>
@@ -10466,14 +10499,14 @@
       <c r="B41" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="214" t="s">
+      <c r="C41" s="216" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="214"/>
+      <c r="D41" s="216"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="216"/>
+      <c r="G41" s="216"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="119"/>
       <c r="J41" s="121"/>
     </row>
@@ -10484,14 +10517,14 @@
       <c r="B42" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="216" t="s">
         <v>258</v>
       </c>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
+      <c r="D42" s="216"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
       <c r="I42" s="119"/>
       <c r="J42" s="121"/>
     </row>
@@ -10502,14 +10535,14 @@
       <c r="B43" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="216" t="s">
+      <c r="C43" s="218" t="s">
         <v>190</v>
       </c>
-      <c r="D43" s="217"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="217"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="218"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="220"/>
       <c r="I43" s="119"/>
       <c r="J43" s="121"/>
     </row>
@@ -11567,7 +11600,7 @@
       <c r="F38" s="158"/>
       <c r="G38" s="159"/>
     </row>
-    <row r="39" spans="1:7" s="160" customFormat="1" ht="30">
+    <row r="39" spans="1:7" s="160" customFormat="1">
       <c r="A39" s="149" t="s">
         <v>16</v>
       </c>
@@ -12158,7 +12191,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10:E12 E14:E15 E42:E45 E18:E40">
+  <conditionalFormatting sqref="E10:E12 E14:E15 E18:E40 E42:E45">
     <cfRule type="expression" dxfId="25" priority="109">
       <formula>($E10="")</formula>
     </cfRule>
@@ -12366,7 +12399,7 @@
         <v>205</v>
       </c>
       <c r="D13" s="84"/>
-      <c r="E13" s="222" t="s">
+      <c r="E13" s="200" t="s">
         <v>323</v>
       </c>
     </row>
@@ -12891,7 +12924,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E16:E17 E9:E12 E14">
+  <conditionalFormatting sqref="E9:E12 E14 E16:E17">
     <cfRule type="expression" dxfId="23" priority="5">
       <formula>($E9="")</formula>
     </cfRule>
@@ -12914,7 +12947,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -13145,16 +13178,16 @@
       <c r="E17" s="119"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="201" customFormat="1" ht="160.5" customHeight="1">
-      <c r="A18" s="194"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="196" t="s">
+    <row r="18" spans="1:7" s="199" customFormat="1" ht="160.5" customHeight="1">
+      <c r="A18" s="192"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="200"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="198"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="149" t="s">
@@ -13198,52 +13231,52 @@
       <c r="E21" s="119"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="201" customFormat="1" ht="68.25" customHeight="1">
-      <c r="A22" s="194" t="s">
+    <row r="22" spans="1:7" s="199" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A22" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="194" t="s">
         <v>223</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="200"/>
-    </row>
-    <row r="23" spans="1:7" s="201" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A23" s="194" t="s">
+      <c r="D22" s="195"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="198"/>
+    </row>
+    <row r="23" spans="1:7" s="199" customFormat="1" ht="76.5" customHeight="1">
+      <c r="A23" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="196" t="s">
+      <c r="C23" s="194" t="s">
         <v>312</v>
       </c>
-      <c r="D23" s="197"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="119" t="s">
         <v>326</v>
       </c>
-      <c r="F23" s="199"/>
-      <c r="G23" s="200"/>
-    </row>
-    <row r="24" spans="1:7" s="201" customFormat="1" ht="84" customHeight="1">
-      <c r="A24" s="194" t="s">
+      <c r="F23" s="197"/>
+      <c r="G23" s="198"/>
+    </row>
+    <row r="24" spans="1:7" s="199" customFormat="1" ht="84" customHeight="1">
+      <c r="A24" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="195" t="s">
+      <c r="B24" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="194" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="200"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="198"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="149" t="s">
@@ -14013,7 +14046,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10:E14 E31:E35 E43:E45 E16:E28">
+  <conditionalFormatting sqref="E10:E14 E16:E28 E31:E35 E43:E45">
     <cfRule type="expression" dxfId="21" priority="125">
       <formula>($E10="")</formula>
     </cfRule>

--- a/doc/Jetson_Orin_NX_andOrin_Nano_Schematic_Checklist.xlsx
+++ b/doc/Jetson_Orin_NX_andOrin_Nano_Schematic_Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danai\OneDrive\Desktop\Github\jetson-orin-baseboard\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danai\Documents\GitHub\jetson-orin-baseboard\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{031EC9AF-C5D7-47A7-9501-69A3A740D511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA8A627-E9A2-42A2-9795-66D77FED3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="876" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="876" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,6 @@
     <definedName name="_Toc315251806" localSheetId="2">General!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="335">
   <si>
     <t>Check Item</t>
   </si>
@@ -659,9 +658,6 @@
   </si>
   <si>
     <t>POWER_EN is deactivated (low) to begin module power off sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For sudden power loss case, VDD_IN must remain above 3.0V for at least 10mS after POWR_EN goes inactive (low) </t>
   </si>
   <si>
     <t>VBUS from connects to load switch (if host supported) and through level shifter to GPIO00 (USB0_VBUS_EN0 - 1.8V) on the module.</t>
@@ -1192,6 +1188,15 @@
   </si>
   <si>
     <t>RESPECTING ANTMICRO SCHEMATIC</t>
+  </si>
+  <si>
+    <t>LOOSELY SAYING YES BC FOLLOWING ANTMICRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For sudden power loss case, VDD_IN must remain above 3.0V for at least 10mS after POWER_EN goes inactive (low) </t>
+  </si>
+  <si>
+    <t>APPLIED LOSELY BC ANTMICRO</t>
   </si>
 </sst>
 </file>
@@ -2389,6 +2394,15 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2416,30 +2430,18 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2447,6 +2449,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2454,21 +2459,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC99"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -3264,7 +3255,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3286,7 +3277,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C1" s="118">
         <v>45021</v>
@@ -3306,13 +3297,13 @@
         <v>44</v>
       </c>
       <c r="D5" s="141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="141" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="141" t="s">
         <v>68</v>
@@ -3355,7 +3346,7 @@
       </c>
       <c r="E6" s="80">
         <f>Power!I3</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="80">
         <f>USB_PEX!E3</f>
@@ -3367,7 +3358,7 @@
       </c>
       <c r="H6" s="80">
         <f>Disp_Cam!E3</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I6" s="80">
         <f>Audio!E3</f>
@@ -3383,7 +3374,7 @@
       </c>
       <c r="L6" s="80">
         <f>Pins_EMI_ESD!E3</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M6"/>
       <c r="N6"/>
@@ -3408,7 +3399,7 @@
       </c>
       <c r="E7" s="80">
         <f>Power!I4</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="80">
         <f>USB_PEX!E4</f>
@@ -3420,7 +3411,7 @@
       </c>
       <c r="H7" s="80">
         <f>Disp_Cam!E4</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I7" s="80">
         <f>Audio!E4</f>
@@ -3436,7 +3427,7 @@
       </c>
       <c r="L7" s="80">
         <f>Pins_EMI_ESD!E4</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M7"/>
       <c r="N7"/>
@@ -3459,9 +3450,9 @@
         <f>Ref_Design_Considerations!E5</f>
         <v>100</v>
       </c>
-      <c r="E8" s="203">
+      <c r="E8" s="201" t="str">
         <f>Power!I5</f>
-        <v>0.65</v>
+        <v>100</v>
       </c>
       <c r="F8" s="201" t="str">
         <f>USB_PEX!E5</f>
@@ -3471,9 +3462,9 @@
         <f>Ethernet!E5</f>
         <v>100</v>
       </c>
-      <c r="H8" s="203">
+      <c r="H8" s="201" t="str">
         <f>Disp_Cam!E5</f>
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="I8" s="201" t="str">
         <f>Audio!E5</f>
@@ -3489,7 +3480,7 @@
       </c>
       <c r="L8" s="203">
         <f>Pins_EMI_ESD!E5</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -3964,7 +3955,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4099,7 +4090,7 @@
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -4111,11 +4102,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -4127,11 +4118,11 @@
         <v>21</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -4139,11 +4130,11 @@
       <c r="A13" s="149"/>
       <c r="B13" s="150"/>
       <c r="C13" s="154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -4155,11 +4146,11 @@
         <v>21</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="12"/>
     </row>
@@ -4171,11 +4162,11 @@
         <v>21</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -4191,10 +4182,10 @@
       </c>
       <c r="D16" s="131"/>
       <c r="E16" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4209,10 +4200,10 @@
       </c>
       <c r="D17" s="131"/>
       <c r="E17" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4227,7 +4218,7 @@
       </c>
       <c r="D18" s="131"/>
       <c r="E18" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="120"/>
     </row>
@@ -4239,11 +4230,11 @@
         <v>21</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" s="120"/>
     </row>
@@ -4273,7 +4264,7 @@
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F21" s="12"/>
     </row>
@@ -4289,7 +4280,7 @@
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F22" s="12"/>
     </row>
@@ -4305,7 +4296,7 @@
       </c>
       <c r="D23" s="84"/>
       <c r="E23" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="12"/>
     </row>
@@ -4321,7 +4312,7 @@
       </c>
       <c r="D24" s="84"/>
       <c r="E24" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F24" s="12"/>
     </row>
@@ -4352,7 +4343,7 @@
       </c>
       <c r="D26" s="156"/>
       <c r="E26" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="158"/>
       <c r="G26" s="159"/>
@@ -4369,7 +4360,7 @@
       </c>
       <c r="D27" s="156"/>
       <c r="E27" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="158"/>
       <c r="G27" s="159"/>
@@ -4413,10 +4404,10 @@
       </c>
       <c r="D29" s="156"/>
       <c r="E29" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F29" s="158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G29" s="180"/>
       <c r="H29" s="180"/>
@@ -4444,10 +4435,10 @@
       </c>
       <c r="D30" s="156"/>
       <c r="E30" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F30" s="158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G30" s="180"/>
       <c r="H30" s="180"/>
@@ -4475,7 +4466,7 @@
       </c>
       <c r="D31" s="156"/>
       <c r="E31" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="158"/>
       <c r="G31" s="180"/>
@@ -4504,7 +4495,7 @@
       </c>
       <c r="D32" s="156"/>
       <c r="E32" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F32" s="158"/>
       <c r="G32" s="180"/>
@@ -4546,7 +4537,7 @@
       </c>
       <c r="D34" s="181"/>
       <c r="E34" s="182" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="183"/>
       <c r="G34" s="159"/>
@@ -5028,34 +5019,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E19">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>($E10="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>($E10="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E24 E26:E27">
-    <cfRule type="expression" dxfId="11" priority="23">
+    <cfRule type="expression" dxfId="9" priority="23">
       <formula>($E21="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>($E21="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E32">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>($E29="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>($E29="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>($E34="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>($E34="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5205,11 +5196,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -5221,14 +5212,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="160" customFormat="1" ht="26.25">
@@ -5256,7 +5247,7 @@
       </c>
       <c r="D13" s="156"/>
       <c r="E13" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="158"/>
       <c r="G13" s="185"/>
@@ -5269,11 +5260,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="156"/>
       <c r="E14" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="158"/>
       <c r="G14" s="185"/>
@@ -5900,10 +5891,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E11 E13:E14">
-    <cfRule type="expression" dxfId="5" priority="121">
+    <cfRule type="expression" dxfId="3" priority="121">
       <formula>($E10="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="123">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>($E10="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5922,8 +5913,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5964,7 +5955,7 @@
       </c>
       <c r="E3" s="40">
         <f>COUNTBLANK(E7:E21)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F3" s="38"/>
     </row>
@@ -5977,7 +5968,7 @@
       </c>
       <c r="E4" s="39">
         <f>E2-E3</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -5990,7 +5981,7 @@
       </c>
       <c r="E5" s="41">
         <f>IF(E3=0,"100",E4/E2)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F5" s="38"/>
     </row>
@@ -6056,7 +6047,9 @@
         <v>63</v>
       </c>
       <c r="D10" s="84"/>
-      <c r="E10" s="119"/>
+      <c r="E10" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6">
@@ -6071,7 +6064,7 @@
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -6086,7 +6079,9 @@
         <v>64</v>
       </c>
       <c r="D12" s="84"/>
-      <c r="E12" s="119"/>
+      <c r="E12" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6">
@@ -6097,10 +6092,12 @@
         <v>19</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D13" s="84"/>
-      <c r="E13" s="119"/>
+      <c r="E13" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="26.25">
@@ -6126,7 +6123,9 @@
         <v>92</v>
       </c>
       <c r="D15" s="84"/>
-      <c r="E15" s="119"/>
+      <c r="E15" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F15" s="120"/>
     </row>
     <row r="16" spans="1:6">
@@ -6137,10 +6136,12 @@
         <v>91</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="84"/>
-      <c r="E16" s="119"/>
+      <c r="E16" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F16" s="120"/>
     </row>
     <row r="17" spans="1:6">
@@ -6151,10 +6152,12 @@
         <v>91</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="84"/>
-      <c r="E17" s="119"/>
+      <c r="E17" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F17" s="120"/>
     </row>
     <row r="18" spans="1:6">
@@ -6165,10 +6168,12 @@
         <v>91</v>
       </c>
       <c r="C18" s="154" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="84"/>
-      <c r="E18" s="119"/>
+      <c r="E18" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F18" s="120"/>
     </row>
     <row r="19" spans="1:6" ht="30">
@@ -6179,10 +6184,12 @@
         <v>91</v>
       </c>
       <c r="C19" s="154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="84"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="F19" s="120"/>
     </row>
     <row r="20" spans="1:6">
@@ -6193,10 +6200,12 @@
         <v>91</v>
       </c>
       <c r="C20" s="154" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20" s="84"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F20" s="120"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1">
@@ -6210,7 +6219,9 @@
         <v>65</v>
       </c>
       <c r="D21" s="128"/>
-      <c r="E21" s="96"/>
+      <c r="E21" s="96" t="s">
+        <v>322</v>
+      </c>
       <c r="F21" s="129"/>
     </row>
     <row r="22" spans="1:6">
@@ -6514,24 +6525,16 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E9:E13">
-    <cfRule type="expression" dxfId="3" priority="33">
+  <conditionalFormatting sqref="E9:E13 E20:E21 E15:E18">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>($E9="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="34">
+    <cfRule type="expression" dxfId="0" priority="34">
       <formula>($E9="No")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:E21">
-    <cfRule type="expression" dxfId="1" priority="137">
-      <formula>($E15="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="139">
-      <formula>($E15="No")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E13 E15:E21" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E13 E15:E18 E20:E21" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Yes, No, Not Appl"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6587,7 +6590,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="79" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="68">
         <v>44658</v>
@@ -6596,12 +6599,12 @@
       <c r="E4" s="72"/>
       <c r="F4" s="72"/>
       <c r="G4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C5" s="68">
         <v>44834</v>
@@ -6612,15 +6615,15 @@
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
       <c r="G5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>70</v>
@@ -6632,36 +6635,36 @@
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="72" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>184</v>
@@ -6670,86 +6673,86 @@
         <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="72" t="s">
         <v>187</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E10" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="72" t="s">
         <v>267</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>268</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E12" s="72" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="B13" s="79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C13" s="68">
         <v>45021</v>
@@ -6758,79 +6761,79 @@
         <v>70</v>
       </c>
       <c r="E13" s="191" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="72" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
       <c r="G17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -7604,7 +7607,7 @@
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="102"/>
     </row>
@@ -7635,7 +7638,7 @@
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="102"/>
     </row>
@@ -7666,7 +7669,7 @@
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="102"/>
     </row>
@@ -7685,7 +7688,7 @@
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="102"/>
     </row>
@@ -7704,7 +7707,7 @@
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="102"/>
     </row>
@@ -7723,7 +7726,7 @@
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F16" s="102"/>
     </row>
@@ -7742,7 +7745,7 @@
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F17" s="102"/>
     </row>
@@ -7761,7 +7764,7 @@
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="80" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="102"/>
     </row>
@@ -7780,7 +7783,7 @@
       </c>
       <c r="D19" s="128"/>
       <c r="E19" s="81" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" s="139"/>
     </row>
@@ -8171,26 +8174,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="37" priority="21">
       <formula>($E9="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>($E9="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="37" priority="43">
+    <cfRule type="expression" dxfId="35" priority="43">
       <formula>($E11="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="44">
+    <cfRule type="expression" dxfId="34" priority="44">
       <formula>($E11="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E19">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>($E13="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>($E13="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8204,7 +8207,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23:L23"/>
       <selection pane="bottomLeft" activeCell="D19" sqref="D19:F19"/>
@@ -8381,11 +8384,11 @@
         <v>47</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="67"/>
     </row>
@@ -8395,11 +8398,11 @@
         <v>47</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="67"/>
     </row>
@@ -8438,11 +8441,11 @@
         <v>48</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="67"/>
     </row>
@@ -8454,11 +8457,11 @@
         <v>48</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="67"/>
     </row>
@@ -8470,11 +8473,11 @@
         <v>48</v>
       </c>
       <c r="C15" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="95"/>
       <c r="E15" s="96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="97"/>
     </row>
@@ -8494,11 +8497,11 @@
       <c r="C18" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="213" t="s">
+      <c r="D18" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="214"/>
-      <c r="F18" s="215"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="107"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -8515,85 +8518,85 @@
     </row>
     <row r="19" spans="1:19">
       <c r="C19" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
+        <v>323</v>
+      </c>
+      <c r="D19" s="207"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="209"/>
     </row>
     <row r="20" spans="1:19">
       <c r="C20" s="98"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="209"/>
     </row>
     <row r="21" spans="1:19">
       <c r="C21" s="98"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="209"/>
     </row>
     <row r="22" spans="1:19">
       <c r="C22" s="98"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="209"/>
     </row>
     <row r="23" spans="1:19">
       <c r="C23" s="98"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="206"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
     </row>
     <row r="24" spans="1:19">
       <c r="C24" s="98"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="206"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="209"/>
     </row>
     <row r="25" spans="1:19" ht="21">
       <c r="C25" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="210"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="212"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
     </row>
     <row r="26" spans="1:19">
       <c r="C26" s="98"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="206"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="209"/>
     </row>
     <row r="27" spans="1:19">
       <c r="C27" s="98"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="206"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="209"/>
     </row>
     <row r="28" spans="1:19">
       <c r="C28" s="98"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="208"/>
+      <c r="F28" s="209"/>
     </row>
     <row r="29" spans="1:19">
       <c r="C29" s="98"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="206"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="208"/>
+      <c r="F29" s="209"/>
     </row>
     <row r="30" spans="1:19">
       <c r="C30" s="98"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="209"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="C31" s="100"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="209"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="212"/>
     </row>
     <row r="32" spans="1:19">
       <c r="E32" s="46" t="s">
@@ -8828,6 +8831,13 @@
   </sheetData>
   <autoFilter ref="A7:B7" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="D20:F20"/>
@@ -8835,19 +8845,12 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <conditionalFormatting sqref="E10:E11 E13:E15">
-    <cfRule type="expression" dxfId="33" priority="294">
+    <cfRule type="expression" dxfId="31" priority="294">
       <formula>($E10="No")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="299">
+    <cfRule type="expression" dxfId="30" priority="299">
       <formula>($E10="")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8881,7 +8884,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="31.5">
       <c r="A1" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -8963,7 +8966,7 @@
     </row>
     <row r="8" spans="1:6" ht="26.25">
       <c r="A8" s="123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="148"/>
       <c r="C8" s="155"/>
@@ -8978,14 +8981,14 @@
         <v>16</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="154" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F9" s="120"/>
     </row>
@@ -8994,14 +8997,14 @@
         <v>16</v>
       </c>
       <c r="B10" s="150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="154" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -9010,14 +9013,14 @@
         <v>16</v>
       </c>
       <c r="B11" s="150" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="154" t="s">
         <v>214</v>
-      </c>
-      <c r="C11" s="154" t="s">
-        <v>215</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -9026,17 +9029,17 @@
         <v>16</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="131"/>
       <c r="E12" s="119" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>326</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30">
@@ -9044,14 +9047,14 @@
         <v>16</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13" s="131"/>
       <c r="E13" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -9602,10 +9605,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9:E13">
-    <cfRule type="expression" dxfId="31" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>($E9="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>($E9="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9623,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9676,7 +9679,7 @@
       </c>
       <c r="I3" s="40">
         <f>COUNTBLANK(I11:I33)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="38"/>
     </row>
@@ -9693,7 +9696,7 @@
       </c>
       <c r="I4" s="39">
         <f>I2-I3</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J4" s="38"/>
     </row>
@@ -9708,9 +9711,9 @@
       <c r="H5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="41" t="str">
         <f>IF(I3=0,"100",I4/I2)</f>
-        <v>0.65</v>
+        <v>100</v>
       </c>
       <c r="J5" s="38"/>
     </row>
@@ -9788,7 +9791,7 @@
     <row r="10" spans="1:11" ht="21">
       <c r="A10" s="20"/>
       <c r="B10" s="75" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="127"/>
       <c r="D10" s="127"/>
@@ -9806,7 +9809,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C11" s="84" t="s">
         <v>129</v>
@@ -9815,7 +9818,7 @@
         <v>130</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F11" s="84" t="s">
         <v>81</v>
@@ -9827,7 +9830,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J11" s="121"/>
     </row>
@@ -9836,7 +9839,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="84" t="s">
         <v>131</v>
@@ -9845,19 +9848,19 @@
         <v>82</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H12" s="84" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J12" s="121"/>
       <c r="K12" s="144"/>
@@ -9892,7 +9895,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F14" s="84" t="s">
         <v>83</v>
@@ -9904,7 +9907,7 @@
         <v>81</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J14" s="121"/>
       <c r="K14" s="144"/>
@@ -9912,7 +9915,7 @@
     <row r="15" spans="1:11" ht="21">
       <c r="A15" s="20"/>
       <c r="B15" s="75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C15" s="127"/>
       <c r="D15" s="127"/>
@@ -9933,13 +9936,13 @@
         <v>72</v>
       </c>
       <c r="C16" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="E16" s="84" t="s">
         <v>283</v>
-      </c>
-      <c r="E16" s="84" t="s">
-        <v>284</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>105</v>
@@ -9951,7 +9954,7 @@
         <v>132</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J16" s="121"/>
       <c r="K16" s="144"/>
@@ -9967,22 +9970,22 @@
         <v>129</v>
       </c>
       <c r="D17" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="84" t="s">
         <v>286</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>287</v>
       </c>
       <c r="F17" s="84" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="84" t="s">
-        <v>289</v>
-      </c>
       <c r="I17" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J17" s="121"/>
       <c r="K17" s="144"/>
@@ -9995,10 +9998,10 @@
         <v>72</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" s="84" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E18" s="84" t="s">
         <v>84</v>
@@ -10007,13 +10010,13 @@
         <v>105</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H18" s="84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I18" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J18" s="121"/>
       <c r="K18" s="144"/>
@@ -10038,13 +10041,13 @@
         <v>105</v>
       </c>
       <c r="G19" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="84" t="s">
         <v>291</v>
       </c>
-      <c r="H19" s="84" t="s">
-        <v>292</v>
-      </c>
       <c r="I19" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J19" s="121"/>
       <c r="K19" s="144"/>
@@ -10075,7 +10078,7 @@
         <v>150</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J20" s="121"/>
       <c r="K20" s="144"/>
@@ -10100,13 +10103,13 @@
         <v>105</v>
       </c>
       <c r="G21" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H21" s="84" t="s">
         <v>146</v>
       </c>
       <c r="I21" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J21" s="121"/>
     </row>
@@ -10121,7 +10124,7 @@
         <v>138</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E22" s="84" t="s">
         <v>84</v>
@@ -10130,13 +10133,13 @@
         <v>145</v>
       </c>
       <c r="G22" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H22" s="84" t="s">
         <v>147</v>
       </c>
       <c r="I22" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J22" s="121"/>
     </row>
@@ -10151,7 +10154,7 @@
         <v>139</v>
       </c>
       <c r="D23" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E23" s="84" t="s">
         <v>84</v>
@@ -10160,13 +10163,13 @@
         <v>145</v>
       </c>
       <c r="G23" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>147</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" s="121"/>
     </row>
@@ -10196,7 +10199,7 @@
         <v>136</v>
       </c>
       <c r="I24" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J24" s="121"/>
     </row>
@@ -10220,13 +10223,13 @@
         <v>90</v>
       </c>
       <c r="G25" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H25" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I25" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J25" s="121"/>
     </row>
@@ -10235,142 +10238,170 @@
         <v>71</v>
       </c>
       <c r="B26" s="148"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="217"/>
+      <c r="C26" s="223"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
       <c r="I26" s="44" t="s">
         <v>26</v>
       </c>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="216" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="216"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="121"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="C27" s="219" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="219"/>
+      <c r="I27" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J27" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="216" t="s">
+      <c r="C28" s="219" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="216"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="121"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="216" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" s="216"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="121"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="C29" s="219" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="219"/>
+      <c r="I29" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30">
       <c r="A30" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="216" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="216"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="121"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="C30" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J30" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30">
       <c r="A31" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="216" t="s">
+      <c r="C31" s="219" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="216"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="121"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="D31" s="219"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="219"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="219"/>
+      <c r="I31" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J31" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="216" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="216"/>
-      <c r="E32" s="216"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="121"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="C32" s="219" t="s">
+        <v>251</v>
+      </c>
+      <c r="D32" s="219"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30">
       <c r="A33" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="216" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="216"/>
-      <c r="E33" s="216"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="121"/>
+      <c r="C33" s="219" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J33" s="121" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="29.25" customHeight="1">
       <c r="A34" s="149" t="s">
@@ -10379,28 +10410,32 @@
       <c r="B34" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="218" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="121"/>
+      <c r="C34" s="216" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" s="121" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="26.25">
       <c r="A35" s="123" t="s">
         <v>184</v>
       </c>
       <c r="B35" s="148"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
       <c r="I35" s="44" t="s">
         <v>26</v>
       </c>
@@ -10411,140 +10446,164 @@
       <c r="B36" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="223"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="222"/>
       <c r="I36" s="110" t="s">
         <v>26</v>
       </c>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="30">
       <c r="A37" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B37" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="216" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="121"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="C37" s="219" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="219"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="219"/>
+      <c r="H37" s="219"/>
+      <c r="I37" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30">
       <c r="A38" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C38" s="216" t="s">
+      <c r="C38" s="219" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="121"/>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30">
       <c r="A39" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="216" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="216"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="121"/>
+      <c r="C39" s="219" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="219"/>
+      <c r="I39" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" s="121" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="20"/>
       <c r="B40" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="221"/>
-      <c r="D40" s="222"/>
-      <c r="E40" s="222"/>
-      <c r="F40" s="222"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="223"/>
+      <c r="C40" s="220"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="222"/>
       <c r="I40" s="110" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="30">
       <c r="A41" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="216" t="s">
+      <c r="C41" s="219" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="216"/>
-      <c r="E41" s="216"/>
-      <c r="F41" s="216"/>
-      <c r="G41" s="216"/>
-      <c r="H41" s="216"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="121"/>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J41" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30">
       <c r="A42" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="216" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="216"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="121"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="C42" s="219" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="219"/>
+      <c r="E42" s="219"/>
+      <c r="F42" s="219"/>
+      <c r="G42" s="219"/>
+      <c r="H42" s="219"/>
+      <c r="I42" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J42" s="121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30">
       <c r="A43" s="149" t="s">
         <v>16</v>
       </c>
       <c r="B43" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="C43" s="218" t="s">
-        <v>190</v>
-      </c>
-      <c r="D43" s="219"/>
-      <c r="E43" s="219"/>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="121"/>
+      <c r="C43" s="216" t="s">
+        <v>333</v>
+      </c>
+      <c r="D43" s="217"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="218"/>
+      <c r="I43" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" s="121" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="I44" s="47" t="s">
@@ -10948,6 +11007,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="C42:H42"/>
@@ -10958,28 +11025,20 @@
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <conditionalFormatting sqref="I11:I12 I14 I16:I25 I27:I34 I41:I43">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>($I11="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>($I11="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:I39">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>($I37="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>($I37="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11015,7 +11074,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
       <c r="A1" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -11133,7 +11192,7 @@
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -11145,11 +11204,11 @@
         <v>23</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="120"/>
     </row>
@@ -11165,7 +11224,7 @@
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F12" s="120"/>
     </row>
@@ -11175,7 +11234,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="75"/>
       <c r="E13" s="87" t="s">
@@ -11191,11 +11250,11 @@
         <v>23</v>
       </c>
       <c r="C14" s="154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="120"/>
     </row>
@@ -11207,11 +11266,11 @@
         <v>23</v>
       </c>
       <c r="C15" s="154" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="120"/>
     </row>
@@ -11255,7 +11314,7 @@
       </c>
       <c r="D18" s="156"/>
       <c r="E18" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="158"/>
       <c r="G18" s="159"/>
@@ -11272,7 +11331,7 @@
       </c>
       <c r="D19" s="156"/>
       <c r="E19" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F19" s="158"/>
       <c r="G19" s="159"/>
@@ -11289,7 +11348,7 @@
       </c>
       <c r="D20" s="156"/>
       <c r="E20" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F20" s="158"/>
       <c r="G20" s="159"/>
@@ -11306,7 +11365,7 @@
       </c>
       <c r="D21" s="156"/>
       <c r="E21" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F21" s="158"/>
       <c r="G21" s="159"/>
@@ -11319,11 +11378,11 @@
         <v>53</v>
       </c>
       <c r="C22" s="154" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="156"/>
       <c r="E22" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F22" s="158"/>
       <c r="G22" s="159"/>
@@ -11336,11 +11395,11 @@
         <v>53</v>
       </c>
       <c r="C23" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="156"/>
       <c r="E23" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F23" s="158"/>
       <c r="G23" s="159"/>
@@ -11357,7 +11416,7 @@
       </c>
       <c r="D24" s="156"/>
       <c r="E24" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F24" s="158"/>
       <c r="G24" s="159"/>
@@ -11374,7 +11433,7 @@
       </c>
       <c r="D25" s="156"/>
       <c r="E25" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F25" s="158"/>
       <c r="G25" s="159"/>
@@ -11391,7 +11450,7 @@
       </c>
       <c r="D26" s="156"/>
       <c r="E26" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="158"/>
       <c r="G26" s="159"/>
@@ -11404,11 +11463,11 @@
         <v>53</v>
       </c>
       <c r="C27" s="154" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="156"/>
       <c r="E27" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="158"/>
       <c r="G27" s="159"/>
@@ -11421,11 +11480,11 @@
         <v>53</v>
       </c>
       <c r="C28" s="163" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D28" s="156"/>
       <c r="E28" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" s="158"/>
       <c r="G28" s="159"/>
@@ -11438,11 +11497,11 @@
         <v>53</v>
       </c>
       <c r="C29" s="154" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="156"/>
       <c r="E29" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F29" s="158"/>
       <c r="G29" s="159"/>
@@ -11455,11 +11514,11 @@
         <v>53</v>
       </c>
       <c r="C30" s="154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="156"/>
       <c r="E30" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="158"/>
       <c r="G30" s="159"/>
@@ -11472,11 +11531,11 @@
         <v>53</v>
       </c>
       <c r="C31" s="154" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D31" s="156"/>
       <c r="E31" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F31" s="158"/>
       <c r="G31" s="159"/>
@@ -11489,11 +11548,11 @@
         <v>53</v>
       </c>
       <c r="C32" s="154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D32" s="156"/>
       <c r="E32" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F32" s="158"/>
       <c r="G32" s="159"/>
@@ -11506,11 +11565,11 @@
         <v>53</v>
       </c>
       <c r="C33" s="163" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D33" s="156"/>
       <c r="E33" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F33" s="158"/>
       <c r="G33" s="159"/>
@@ -11523,11 +11582,11 @@
         <v>53</v>
       </c>
       <c r="C34" s="154" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D34" s="156"/>
       <c r="E34" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F34" s="158"/>
       <c r="G34" s="159"/>
@@ -11540,11 +11599,11 @@
         <v>53</v>
       </c>
       <c r="C35" s="154" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D35" s="156"/>
       <c r="E35" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F35" s="158"/>
       <c r="G35" s="159"/>
@@ -11557,11 +11616,11 @@
         <v>53</v>
       </c>
       <c r="C36" s="154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="156"/>
       <c r="E36" s="157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F36" s="158"/>
       <c r="G36" s="159"/>
@@ -11578,7 +11637,7 @@
       </c>
       <c r="D37" s="156"/>
       <c r="E37" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F37" s="158"/>
       <c r="G37" s="159"/>
@@ -11591,11 +11650,11 @@
         <v>53</v>
       </c>
       <c r="C38" s="154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D38" s="156"/>
       <c r="E38" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F38" s="158"/>
       <c r="G38" s="159"/>
@@ -11608,11 +11667,11 @@
         <v>53</v>
       </c>
       <c r="C39" s="154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D39" s="156"/>
       <c r="E39" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F39" s="158"/>
       <c r="G39" s="159"/>
@@ -11629,7 +11688,7 @@
       </c>
       <c r="D40" s="156"/>
       <c r="E40" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F40" s="158"/>
       <c r="G40" s="159"/>
@@ -11658,7 +11717,7 @@
       </c>
       <c r="D42" s="84"/>
       <c r="E42" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F42" s="120"/>
     </row>
@@ -11670,11 +11729,11 @@
         <v>7</v>
       </c>
       <c r="C43" s="154" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="120"/>
     </row>
@@ -11686,11 +11745,11 @@
         <v>7</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D44" s="84"/>
       <c r="E44" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="120"/>
     </row>
@@ -11702,11 +11761,11 @@
         <v>7</v>
       </c>
       <c r="C45" s="154" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F45" s="120"/>
     </row>
@@ -12192,10 +12251,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E12 E14:E15 E18:E40 E42:E45">
-    <cfRule type="expression" dxfId="25" priority="109">
+    <cfRule type="expression" dxfId="23" priority="109">
       <formula>($E10="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="111">
+    <cfRule type="expression" dxfId="22" priority="111">
       <formula>($E10="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12332,11 +12391,11 @@
         <v>68</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F9" s="121"/>
     </row>
@@ -12348,11 +12407,11 @@
         <v>68</v>
       </c>
       <c r="C10" s="156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F10" s="121"/>
     </row>
@@ -12364,11 +12423,11 @@
         <v>68</v>
       </c>
       <c r="C11" s="156" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F11" s="121"/>
     </row>
@@ -12380,11 +12439,11 @@
         <v>68</v>
       </c>
       <c r="C12" s="156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F12" s="121"/>
     </row>
@@ -12396,11 +12455,11 @@
         <v>68</v>
       </c>
       <c r="C13" s="156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="200" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
@@ -12411,14 +12470,14 @@
         <v>68</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F14" s="121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25">
@@ -12446,7 +12505,7 @@
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="108"/>
@@ -12463,7 +12522,7 @@
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="108"/>
@@ -12925,10 +12984,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9:E12 E14 E16:E17">
-    <cfRule type="expression" dxfId="23" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>($E9="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>($E9="No")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12947,8 +13006,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12989,7 +13048,7 @@
       </c>
       <c r="E3" s="40">
         <f>COUNTBLANK(E7:E45)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F3" s="38"/>
     </row>
@@ -13002,7 +13061,7 @@
       </c>
       <c r="E4" s="39">
         <f>E2-E3</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4" s="38"/>
     </row>
@@ -13013,9 +13072,9 @@
       <c r="D5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="41" t="str">
         <f>IF(E3=0,"100",E4/E2)</f>
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F5" s="38"/>
     </row>
@@ -13078,10 +13137,12 @@
         <v>46</v>
       </c>
       <c r="C10" s="154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D10" s="84"/>
-      <c r="E10" s="119"/>
+      <c r="E10" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6">
@@ -13092,20 +13153,24 @@
         <v>46</v>
       </c>
       <c r="C11" s="154" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="84"/>
-      <c r="E11" s="119"/>
+      <c r="E11" s="14" t="s">
+        <v>322</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="149"/>
       <c r="B12" s="150"/>
       <c r="C12" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="84"/>
-      <c r="E12" s="119"/>
+      <c r="E12" s="119" t="s">
+        <v>322</v>
+      </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
@@ -13116,11 +13181,15 @@
         <v>46</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D13" s="84"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="149" t="s">
@@ -13130,11 +13199,15 @@
         <v>46</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D14" s="84"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="21">
       <c r="A15" s="151"/>
@@ -13158,10 +13231,12 @@
         <v>24</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D16" s="84"/>
-      <c r="E16" s="119"/>
+      <c r="E16" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="18">
@@ -13172,20 +13247,24 @@
         <v>24</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D17" s="84"/>
-      <c r="E17" s="119"/>
+      <c r="E17" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:7" s="199" customFormat="1" ht="160.5" customHeight="1">
       <c r="A18" s="192"/>
       <c r="B18" s="193"/>
       <c r="C18" s="194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D18" s="195"/>
-      <c r="E18" s="196"/>
+      <c r="E18" s="196" t="s">
+        <v>325</v>
+      </c>
       <c r="F18" s="197"/>
       <c r="G18" s="198"/>
     </row>
@@ -13200,7 +13279,9 @@
         <v>164</v>
       </c>
       <c r="D19" s="84"/>
-      <c r="E19" s="119"/>
+      <c r="E19" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="30">
@@ -13211,10 +13292,12 @@
         <v>24</v>
       </c>
       <c r="C20" s="154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D20" s="84"/>
-      <c r="E20" s="119"/>
+      <c r="E20" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:7">
@@ -13228,7 +13311,9 @@
         <v>108</v>
       </c>
       <c r="D21" s="84"/>
-      <c r="E21" s="119"/>
+      <c r="E21" s="119" t="s">
+        <v>325</v>
+      </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:7" s="199" customFormat="1" ht="68.25" customHeight="1">
@@ -13239,10 +13324,12 @@
         <v>24</v>
       </c>
       <c r="C22" s="194" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="195"/>
-      <c r="E22" s="196"/>
+      <c r="E22" s="196" t="s">
+        <v>325</v>
+      </c>
       <c r="F22" s="197"/>
       <c r="G22" s="198"/>
     </row>
@@ -13254,11 +13341,11 @@
         <v>24</v>
       </c>
       <c r="C23" s="194" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D23" s="195"/>
       <c r="E23" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F23" s="197"/>
       <c r="G23" s="198"/>
@@ -13271,10 +13358,12 @@
         <v>24</v>
       </c>
       <c r="C24" s="194" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D24" s="195"/>
-      <c r="E24" s="196"/>
+      <c r="E24" s="196" t="s">
+        <v>325</v>
+      </c>
       <c r="F24" s="197"/>
       <c r="G24" s="198"/>
     </row>
@@ -13286,11 +13375,11 @@
         <v>24</v>
       </c>
       <c r="C25" s="154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D25" s="84"/>
       <c r="E25" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F25" s="12"/>
     </row>
@@ -13306,7 +13395,7 @@
       </c>
       <c r="D26" s="84"/>
       <c r="E26" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" s="12"/>
     </row>
@@ -13322,7 +13411,7 @@
       </c>
       <c r="D27" s="84"/>
       <c r="E27" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -13334,11 +13423,11 @@
         <v>24</v>
       </c>
       <c r="C28" s="154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="84"/>
       <c r="E28" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F28" s="12"/>
     </row>
@@ -13378,10 +13467,12 @@
         <v>25</v>
       </c>
       <c r="C31" s="154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
+      <c r="E31" s="157" t="s">
+        <v>322</v>
+      </c>
       <c r="F31" s="158"/>
       <c r="G31" s="159"/>
     </row>
@@ -13393,12 +13484,14 @@
         <v>25</v>
       </c>
       <c r="C32" s="154" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
+      <c r="E32" s="157" t="s">
+        <v>322</v>
+      </c>
       <c r="F32" s="158" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G32" s="159"/>
     </row>
@@ -13410,11 +13503,11 @@
         <v>25</v>
       </c>
       <c r="C33" s="154" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D33" s="156"/>
       <c r="E33" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F33" s="158"/>
       <c r="G33" s="159"/>
@@ -13431,7 +13524,7 @@
       </c>
       <c r="D34" s="156"/>
       <c r="E34" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="158"/>
       <c r="G34" s="159"/>
@@ -13448,7 +13541,7 @@
       </c>
       <c r="D35" s="156"/>
       <c r="E35" s="157" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F35" s="158"/>
       <c r="G35" s="159"/>
@@ -13487,11 +13580,11 @@
         <v>7</v>
       </c>
       <c r="C38" s="154" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F38" s="12"/>
     </row>
@@ -13503,11 +13596,11 @@
         <v>7</v>
       </c>
       <c r="C39" s="154" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D39" s="84"/>
       <c r="E39" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F39" s="12"/>
     </row>
@@ -13519,11 +13612,11 @@
         <v>7</v>
       </c>
       <c r="C40" s="154" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D40" s="84"/>
       <c r="E40" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F40" s="12"/>
     </row>
@@ -13539,7 +13632,7 @@
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F41" s="12"/>
     </row>
@@ -13565,11 +13658,11 @@
         <v>7</v>
       </c>
       <c r="C43" s="154" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="12"/>
     </row>
@@ -13581,11 +13674,11 @@
         <v>7</v>
       </c>
       <c r="C44" s="154" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D44" s="84"/>
       <c r="E44" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F44" s="12"/>
     </row>
@@ -13601,7 +13694,7 @@
       </c>
       <c r="D45" s="128"/>
       <c r="E45" s="96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F45" s="130"/>
     </row>
@@ -14046,24 +14139,24 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10:E14 E16:E28 E31:E35 E43:E45">
-    <cfRule type="expression" dxfId="21" priority="125">
+  <conditionalFormatting sqref="E16:E28 E31:E35 E43:E45 E12:E14 E10">
+    <cfRule type="expression" dxfId="19" priority="125">
       <formula>($E10="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="127">
+    <cfRule type="expression" dxfId="18" priority="127">
       <formula>($E10="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E41">
-    <cfRule type="expression" dxfId="19" priority="5">
+    <cfRule type="expression" dxfId="17" priority="5">
       <formula>($E38="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6">
+    <cfRule type="expression" dxfId="16" priority="6">
       <formula>($E38="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E14 E38:E41 E43:E45 E31:E35 E16:E28" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E38:E41 E43:E45 E31:E35 E16:E28 E10 E12:E14" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Yes, No, Not Appl"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14277,7 +14370,7 @@
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F9" s="120"/>
     </row>
@@ -14293,7 +14386,7 @@
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -14309,7 +14402,7 @@
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F11" s="12"/>
     </row>
@@ -14325,7 +14418,7 @@
       </c>
       <c r="D12" s="131"/>
       <c r="E12" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -14341,7 +14434,7 @@
       </c>
       <c r="D13" s="131"/>
       <c r="E13" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -14357,7 +14450,7 @@
       </c>
       <c r="D14" s="131"/>
       <c r="E14" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F14" s="120"/>
     </row>
@@ -14373,7 +14466,7 @@
       </c>
       <c r="D15" s="131"/>
       <c r="E15" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F15" s="12"/>
     </row>
@@ -14389,7 +14482,7 @@
       </c>
       <c r="D16" s="131"/>
       <c r="E16" s="119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F16" s="12"/>
     </row>
@@ -14417,7 +14510,7 @@
       </c>
       <c r="D18" s="128"/>
       <c r="E18" s="96" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F18" s="130"/>
     </row>
@@ -14968,18 +15061,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E9:E16">
-    <cfRule type="expression" dxfId="17" priority="29">
+    <cfRule type="expression" dxfId="15" priority="29">
       <formula>($E9="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="30">
+    <cfRule type="expression" dxfId="14" priority="30">
       <formula>($E9="No")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>($E18="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>($E18="No")</formula>
     </cfRule>
   </conditionalFormatting>
